--- a/modelowanie_18_POlszowy_lista2/zad1.xlsx
+++ b/modelowanie_18_POlszowy_lista2/zad1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansnieg/Documents/ISSP6/MK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jansnieg/Documents/ISSP6/MK/modelowanie_18_POlszowy_lista2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -504,11 +504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2082969376"/>
-        <c:axId val="-2103523056"/>
+        <c:axId val="-2141136208"/>
+        <c:axId val="-2141147280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082969376"/>
+        <c:axId val="-2141136208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103523056"/>
+        <c:crossAx val="-2141147280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103523056"/>
+        <c:axId val="-2141147280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082969376"/>
+        <c:crossAx val="-2141136208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1330,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2098422928"/>
-        <c:axId val="-2103736256"/>
+        <c:axId val="-2141178928"/>
+        <c:axId val="-2141176128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098422928"/>
+        <c:axId val="-2141178928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1343,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103736256"/>
+        <c:crossAx val="-2141176128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103736256"/>
+        <c:axId val="-2141176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098422928"/>
+        <c:crossAx val="-2141178928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
